--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -53,10 +53,10 @@
     <t>Personal Responsibilities</t>
   </si>
   <si>
-    <t>Required</t>
-  </si>
-  <si>
     <t>Partial</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -190,7 +190,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -204,6 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -504,8 +504,11 @@
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="17">
         <v>42129</v>
+      </c>
+      <c r="J1" s="17">
+        <v>42130</v>
       </c>
       <c r="P1" t="s">
         <v>8</v>
@@ -559,124 +562,124 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="12"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="12"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="12"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="16"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a388p434\Dropbox\Gehrig\Programming\Qt\PasswordsGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurt Slagle\Documents\EECS-448-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Login - Authentication</t>
   </si>
@@ -57,6 +57,39 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>KS = Kurt Slagle</t>
+  </si>
+  <si>
+    <t>GK = Gehrig Keane</t>
+  </si>
+  <si>
+    <t>PW = Phillip Wood</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>GK, KS, PW</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>GK, PW</t>
+  </si>
+  <si>
+    <t>Initial Draft of Concept</t>
+  </si>
+  <si>
+    <t>Tweaks</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>GK, PW, KS</t>
   </si>
 </sst>
 </file>
@@ -71,7 +104,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,6 +123,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF15FF20"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -183,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,17 +250,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF15FF20"/>
+      <color rgb="FFFBB1D8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -484,17 +549,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="3.125" customWidth="1"/>
-    <col min="16" max="19" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="5.375" customWidth="1"/>
+    <col min="8" max="8" width="6.25" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="6.25" customWidth="1"/>
+    <col min="13" max="13" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="20.125" customWidth="1"/>
+    <col min="17" max="19" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -504,10 +582,10 @@
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <v>42129</v>
       </c>
-      <c r="J1" s="17">
+      <c r="J1" s="16">
         <v>42130</v>
       </c>
       <c r="P1" t="s">
@@ -563,123 +641,182 @@
         <v>5</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="7"/>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="16"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="11"/>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="16"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="11"/>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="11"/>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="15"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="14"/>
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,7 +690,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>

--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Login - Authentication</t>
   </si>
@@ -71,9 +71,6 @@
     <t>GK</t>
   </si>
   <si>
-    <t>GK, KS, PW</t>
-  </si>
-  <si>
     <t>KS</t>
   </si>
   <si>
@@ -90,13 +87,22 @@
   </si>
   <si>
     <t>GK, PW, KS</t>
+  </si>
+  <si>
+    <t>KS, PW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +110,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +147,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -230,42 +246,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,7 +583,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -582,10 +613,10 @@
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="13">
         <v>42129</v>
       </c>
-      <c r="J1" s="16">
+      <c r="J1" s="13">
         <v>42130</v>
       </c>
       <c r="P1" t="s">
@@ -640,42 +671,42 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="7"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="6"/>
       <c r="P3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="11"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="9"/>
       <c r="P4" t="s">
         <v>14</v>
       </c>
@@ -684,114 +715,120 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="11"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="9"/>
       <c r="P5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="11"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="9"/>
       <c r="P6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="9"/>
+      <c r="P7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="11"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="9"/>
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="14"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="11"/>
       <c r="P9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">

--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurt Slagle\Documents\EECS-448-Final-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a388p434\Dropbox\Gehrig\Programming\Qt\PasswordsGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -580,28 +580,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" customWidth="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="5.125" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="8" width="6.25" customWidth="1"/>
-    <col min="9" max="9" width="6.375" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="6.25" customWidth="1"/>
-    <col min="13" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="6.375" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="2" max="15" width="3.625" customWidth="1"/>
     <col min="16" max="16" width="20.125" customWidth="1"/>
     <col min="17" max="19" width="4.625" customWidth="1"/>
   </cols>
@@ -613,12 +601,8 @@
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13">
-        <v>42129</v>
-      </c>
-      <c r="J1" s="13">
-        <v>42130</v>
-      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="P1" t="s">
         <v>8</v>
       </c>
@@ -830,29 +814,23 @@
       <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
